--- a/responses/Global Supplier Add Change Request.xlsx
+++ b/responses/Global Supplier Add Change Request.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,11 +462,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-10-06 04:46:11</t>
+          <t>2023-11-13 10:20:18</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,335 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023-10-06 05:12:33</t>
+          <t>2023-11-08 12:21:50</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>make me a form to update an address?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>To update an address for an existing supplier, you will need to follow the Changes to Existing Supplier GSAR process. Here are the steps to create a form for updating an address:
+1. Create a form with the following fields:
+   - Supplier Name (as legally registered/appears on tax number documentation)
+   - Supplier Taxpayer ID (applicable if supplier is located in the US)
+   - Supplier Tax/VAT Registration Number (not applicable if supplier is located in Brazil, China, India, United Arab Emirates or US)
+   - Supplier Permanent Account Number (PAN) (applicable if supplier is located in India)
+   - Supplier Goods and Services Tax Identification Number (GSTIN) (applicable if supplier is located in India and only if being used by Cummins in India)
+   - Supplier Cadastro Nacional da Pessoa Jurídica (CNPJ) (applicable if supplier is located in Brazil)
+   - Previous Address (to be updated)
+   - New Address
+   - Contact Name
+   - Contact Email
+   - Contact Phone
+   - Address Purpose (Purchase Order Address or Ship From Address)
+   - Accounts Receivable Contact Name (if applicable)
+   - Accounts Receivable Contact Email (if applicable)
+   - Accounts Receivable Contact Phone (if applicable)
+2. Add validation rules to ensure that all required fields are filled out correctly.
+3. Include a section for the supplier to provide any additional information or instructions related to the address update.
+4. Add a submit button to allow the supplier to submit the form.
+5. Once the form is submitted, the GSAR Super User can review the information provided and initiate the address update process in the supplier master system.
+Note: Make sure to include clear instructions and explanations for each field on the form to help the supplier provide accurate and complete information.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-10-06 10:27:42</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Make me a form update an address?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023-10-06 11:27:21</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>How do I create a GSAR to update an address?</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>To create a Global Supplier Add Change Request (GSAR) to update an address, follow these steps:
+1. **Find a GSAR Super User**: The first step is to find a GSAR Super User who is responsible for creating GSARs. You can find a GSAR Super User from the GSAR Super User Contact List.
+2. **Contact the GSAR Super User**: Once you have selected a GSAR Super User, contact them and explain that you want to update an existing supplier's address.
+3. **Prepare the Required Documentation**: For an address update, the supplier must provide a letterhead with specific information. The letterhead must state the previous address and the new address. For example, the supplier must state on their letterhead, "update our previous purchase order address from (old address in our system) to new purchase order address (new address)".
+4. **Submit the Documentation**: Submit the supplier's letterhead and any additional supporting documents to the GSAR Super User. All pages of the supplier's letterhead and any additional supporting document(s) must be dated (within one year), contain the printed name, job title, eSignature or physical signature (not fancy font) of the supplier's company representative providing the information.
+5. **Wait for the GSAR Super User to Process the Request**: The GSAR Super User will verify the information and process the request. Once the request is processed, the supplier's address will be updated in the system.
+You can use the `functions.create_document_with_settings` function with the `address_update` parameter set to "yes" to create a document with these settings. Here is an example:
+```javascript
+functions.create_document_with_settings({
+  name_update: "no",
+  address_update: "yes",
+  contact_update: "no",
+  banking_update: "no",
+  contact_add: "no",
+  address_add: "no",
+  currency_update: "no",
+});
+```
+This will create a document with the settings for updating an address.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023-11-08 10:36:26</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>what tax documentation do I need for a China supplier?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>For a China supplier, the Global Supplier Add Change Request (GSAR) process does not strictly require a tax document. However, if the supplier has a tax ID document or tax ID number, it is highly recommended to provide it. 
+The supplier will also need to provide a letterhead with specific information. The information required on the letterhead depends on whether the supplier is an indirect or direct supplier. 
+For both types of suppliers, the letterhead should include:
+- Supplier Name (as legally registered)
+- Tax/VAT Registration Number (not applicable if supplier is located in China)
+- Address to which purchase orders should be mailed via postal courier
+- Supplier contact to receive purchase orders
+- Address to which checks can be mailed via postal/courier service
+- Supplier contact to receive payments (Accounts Receivable)
+- Currency in which supplier will receive purchase order from/submit invoice to/receive payment from Cummins
+- Banking Details
+- Email address of person to receive remittance advice notification when electronic payments are made
+For indirect suppliers, the letterhead should also include:
+- Address to which purchase orders should be mailed via postal courier
+- Supplier contact to receive purchase orders (PO Contact - Indirect)
+For direct suppliers, the letterhead should also include:
+- Purchasing/Ship-From Address
+- Supplier contact to receive purchase orders (PO Contact – Direct)
+Please note that all pages of the supplier's letterhead and any additional supporting document(s) must be dated (within one year), contain the printed name, job title, eSignature or physical signature (not fancy font) of the supplier's company representative providing the information.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023-11-08 10:37:21</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>make me a form to add a new address</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2023-11-08 10:37:50</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>make me a form to add a new address and update the supplier name</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2023-11-08 10:38:32</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>does a chinese supplier need tax documentation?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Yes, a Chinese supplier does need tax documentation. However, a tax ID document or tax ID number is not strictly required for a supplier located in China. If they have one, it is highly recommended. They must provide their VAT/Tax ID number on the letterhead.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2023-11-08 12:23:34</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>make me a form to update a supplier address</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2023-11-08 12:35:36</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>como cambio la direccion de un supleidor?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Para cambiar la dirección de un proveedor en el sistema de Cummins, Inc., se debe seguir el proceso de Solicitud de Cambio de Proveedor Global (GSAR, por sus siglas en inglés). Este proceso se realiza a través de un Super Usuario GSAR. Aquí están los pasos que debes seguir:
+1. **Encuentra un Super Usuario GSAR**: Estos son empleados de Cummins responsables de crear GSARs. Puedes encontrar un Super Usuario GSAR utilizando la Lista de Contactos de Super Usuarios GSAR, que tiene una columna para diferentes oficinas de Cummins y otra para los Super Usuarios GSAR de esa ubicación.
+2. **Contacta al Super Usuario GSAR**: Una vez que hayas seleccionado un Super Usuario GSAR, debes contactarlo y explicarle que deseas actualizar la información de un proveedor existente. En este caso, debes especificar que deseas cambiar la dirección del proveedor.
+3. **Solicitud de Cambio de Dirección del Proveedor**: Para cambiar la dirección de un proveedor, el Super Usuario GSAR necesitará documentación del proveedor. Esta documentación incluye una carta en papel membretado de la empresa que indique la dirección anterior y la nueva dirección. Por ejemplo, la carta puede decir: "Actualice nuestra dirección de pedido de compra anterior de (dirección antigua en nuestro sistema) a la nueva dirección de pedido de compra (nueva dirección)".
+4. **Verificación y Actualización**: El Super Usuario GSAR verificará la información y, si todo está en orden, actualizará la dirección del proveedor en el sistema.
+Es importante recordar que todos los documentos del proveedor deben estar fechados (dentro de un año), contener el nombre impreso, el título del trabajo, la firma electrónica o la firma física del representante de la empresa del proveedor que proporciona la información. 
+Por último, este proceso asegura que la información del proveedor en el sistema de Cummins, Inc. sea precisa y esté actualizada.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2023-11-08 12:37:21</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>what documentation do I need to change banking?</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>To change banking information for a supplier in the Global Supplier Add Change Request (GSAR) process, you need to create a Banking Change GSAR. The supplier must provide the new banking details on their company letterhead. The details required include:
+- Bank Name
+- Beneficiary Name
+- Routing Number (ABA) (US based suppliers only)
+- Bank Account Number
+- Beneficiary A/C No./ IBAN No.
+- Swift Code
+- Transit No (Canada based suppliers only)
+- Institution No (Canada based suppliers only)
+- Sort Code (UK based suppliers only)
+- ACH Code (if applicable)
+- Bank City
+- Bank State
+- Bank Country
+- Bank Agency Number (if applicable)
+- Currency
+Please note that all pages of the supplier's letterhead and any additional supporting document(s) must be dated (within one year), contain the printed name, job title, eSignature or physical signature (not fancy font) of the supplier's company representative providing the information.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2023-11-08 12:40:10</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>how I update a supplier address?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>To update a supplier's address in the Global Supplier Add Change Request (GSAR) process, follow these steps:
+1. **Identify a GSAR Super User**: The first step is to find a GSAR Super User who is responsible for creating GSARs. You can find a GSAR Super User from the GSAR Super User Contact List.
+2. **Contact the GSAR Super User**: Once you have identified a GSAR Super User, contact them and explain that you want to update an existing supplier's address.
+3. **Provide Necessary Documentation**: For an address change, the supplier must provide a letterhead that includes the previous address and the new address. For example, the supplier must state on their letterhead, “update our previous purchase order address from (old address in our system) to new purchase order address (new address)”. 
+4. **Submit the Request**: The GSAR Super User will then submit the request to update the supplier's address in the system.
+Remember, all pages of the supplier's letterhead and any additional supporting document(s) must be dated (within one year), contain the printed name, job title, eSignature or physical signature (not fancy font) of the supplier's company representative providing the information.
+Please note that this process is specific to Cummins, Inc. and their GSAR process. Other companies may have different processes for updating supplier information.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2023-11-13 10:21:37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>make a form to update an address?</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Document Created</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2023-11-13 10:21:53</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>

--- a/responses/Global Supplier Add Change Request.xlsx
+++ b/responses/Global Supplier Add Change Request.xlsx
@@ -462,11 +462,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023-11-13 10:20:18</t>
+          <t>2023-11-19 09:06:26</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -529,11 +529,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023-10-06 10:27:42</t>
+          <t>2023-11-19 09:07:17</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
